--- a/Durchläufe/Variante C weiter/Nachbearbeitung_23_03_13_20_40.xlsx
+++ b/Durchläufe/Variante C weiter/Nachbearbeitung_23_03_13_20_40.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\Variante C weiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15725074-F025-4408-8D20-1F0866AC0A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E10DB3-8D23-4652-A694-4FA5A489EA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -2283,55 +2283,55 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
@@ -2340,7 +2340,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,67 +2690,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.6215289999999998</c:v>
+                  <c:v>-6.6215289999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3512003279999999</c:v>
+                  <c:v>-0.51247745499999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23129100000000002</c:v>
+                  <c:v>0.99983500000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6000000000000057E-2</c:v>
+                  <c:v>0.18100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3399999999999923E-2</c:v>
+                  <c:v>-0.13725000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69418500000000005</c:v>
+                  <c:v>0.703148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91178490000000001</c:v>
+                  <c:v>-0.92749444999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10165999999999994</c:v>
+                  <c:v>-0.1410199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10642110000000002</c:v>
+                  <c:v>-0.29769600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36206666666666659</c:v>
+                  <c:v>-0.1001386666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69198345000000006</c:v>
+                  <c:v>-0.7974275500000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.21224758333333327</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34882529008979457</c:v>
+                  <c:v>0.34347375565594995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3177457050309625</c:v>
+                  <c:v>-0.33608382737797809</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0539999999999882E-2</c:v>
+                  <c:v>-4.0539999999999882E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.53436700000000004</c:v>
+                  <c:v>-0.60352399999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8191868499999995</c:v>
+                  <c:v>-4.5920022500000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33084734999999998</c:v>
+                  <c:v>0.37617715000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.13642857142857157</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6052295652173885E-2</c:v>
+                  <c:v>-1.6052295652173885E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94668759999999996</c:v>
+                  <c:v>0.94789460000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11618,7 +11618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EFD41C-991F-4BA2-9657-78291B341D0E}">
   <dimension ref="A1:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A238" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -18579,8 +18579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F2420F-DE65-4B19-B9E2-365B807B661D}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19087,8 +19087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2558A1-7CCA-4408-B812-5A9F3CB1D254}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19130,7 +19130,7 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(History!B2:B151,A2)</f>
+        <f>COUNTIF('Complete History'!B2:B252,Nachbearbeitung!A2)</f>
         <v>4</v>
       </c>
       <c r="C2">
@@ -19140,8 +19140,8 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>ABS(C2-D2)/D2</f>
-        <v>6.6215289999999998</v>
+        <f>(D2-C2)/D2</f>
+        <v>-6.6215289999999998</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -19155,18 +19155,18 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(History!B3:B152,A3)</f>
-        <v>9</v>
+        <f>COUNTIF('Complete History'!B3:B253,Nachbearbeitung!A3)</f>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>1351.2003279999999</v>
+        <v>1512.477455</v>
       </c>
       <c r="D3" s="2">
         <v>1000</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">ABS(C3-D3)/D3</f>
-        <v>0.3512003279999999</v>
+        <f t="shared" ref="E3:E22" si="0">(D3-C3)/D3</f>
+        <v>-0.51247745499999997</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -19180,18 +19180,18 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(History!B4:B153,A4)</f>
-        <v>8</v>
+        <f>COUNTIF('Complete History'!B4:B254,Nachbearbeitung!A4)</f>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>0.76870899999999998</v>
+        <v>1.65E-4</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.23129100000000002</v>
+        <v>0.99983500000000003</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -19205,18 +19205,18 @@
         <v>45</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(History!B5:B154,A5)</f>
-        <v>2</v>
+        <f>COUNTIF('Complete History'!B5:B255,Nachbearbeitung!A5)</f>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>9.4399999999999996E-4</v>
+        <v>8.1899999999999996E-4</v>
       </c>
       <c r="D5" s="4">
         <v>1E-3</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>5.6000000000000057E-2</v>
+        <v>0.18100000000000005</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -19230,18 +19230,18 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(History!B6:B155,A6)</f>
-        <v>2</v>
+        <f>COUNTIF('Complete History'!B6:B256,Nachbearbeitung!A6)</f>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2.0667999999999999E-2</v>
+        <v>2.2745000000000001E-2</v>
       </c>
       <c r="D6" s="2">
         <v>0.02</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.3399999999999923E-2</v>
+        <v>-0.13725000000000004</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -19255,18 +19255,18 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(History!B7:B156,A7)</f>
-        <v>3</v>
+        <f>COUNTIF('Complete History'!B7:B257,Nachbearbeitung!A7)</f>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.61163000000000001</v>
+        <v>0.59370400000000001</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.69418500000000005</v>
+        <v>0.703148</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -19280,18 +19280,18 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(History!B8:B157,A8)</f>
-        <v>10</v>
+        <f>COUNTIF('Complete History'!B8:B258,Nachbearbeitung!A8)</f>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>38.235697999999999</v>
+        <v>38.549889</v>
       </c>
       <c r="D8" s="2">
         <v>20</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.91178490000000001</v>
+        <v>-0.92749444999999997</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -19305,18 +19305,18 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(History!B9:B158,A9)</f>
-        <v>2</v>
+        <f>COUNTIF('Complete History'!B9:B259,Nachbearbeitung!A9)</f>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.110166</v>
+        <v>0.114102</v>
       </c>
       <c r="D9" s="2">
         <v>0.1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.10165999999999994</v>
+        <v>-0.1410199999999999</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -19330,18 +19330,18 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(History!B10:B159,A10)</f>
-        <v>2</v>
+        <f>COUNTIF('Complete History'!B10:B260,Nachbearbeitung!A10)</f>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>11.064211</v>
+        <v>12.97696</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.10642110000000002</v>
+        <v>-0.29769600000000002</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -19355,18 +19355,18 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(History!B11:B160,A11)</f>
-        <v>1</v>
+        <f>COUNTIF('Complete History'!B11:B261,Nachbearbeitung!A11)</f>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1.02155</v>
+        <v>0.82510399999999995</v>
       </c>
       <c r="D11" s="2">
         <v>0.75</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.36206666666666659</v>
+        <v>-0.1001386666666666</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -19380,18 +19380,18 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(History!B12:B161,A12)</f>
-        <v>29</v>
+        <f>COUNTIF('Complete History'!B12:B262,Nachbearbeitung!A12)</f>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>33.839669000000001</v>
+        <v>35.948551000000002</v>
       </c>
       <c r="D12" s="2">
         <v>20</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.69198345000000006</v>
+        <v>-0.7974275500000001</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
@@ -19405,7 +19405,7 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(History!B13:B162,A13)</f>
+        <f>COUNTIF('Complete History'!B13:B263,Nachbearbeitung!A13)</f>
         <v>2</v>
       </c>
       <c r="C13">
@@ -19430,18 +19430,18 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(History!B14:B163,A14)</f>
-        <v>3</v>
+        <f>COUNTIF('Complete History'!B14:B264,Nachbearbeitung!A14)</f>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>1302349419820.4109</v>
+        <v>1313052488688.1001</v>
       </c>
       <c r="D14" s="5">
         <v>2000000000000</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.34882529008979457</v>
+        <v>0.34347375565594995</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -19455,18 +19455,18 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(History!B15:B164,A15)</f>
-        <v>2</v>
+        <f>COUNTIF('Complete History'!B15:B265,Nachbearbeitung!A15)</f>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>4216786256.0990801</v>
+        <v>4275468247.60953</v>
       </c>
       <c r="D15" s="2">
         <v>3200000000</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.3177457050309625</v>
+        <v>-0.33608382737797809</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -19480,7 +19480,7 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(History!B16:B165,A16)</f>
+        <f>COUNTIF('Complete History'!B16:B266,Nachbearbeitung!A16)</f>
         <v>4</v>
       </c>
       <c r="C16">
@@ -19491,7 +19491,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4.0539999999999882E-2</v>
+        <v>-4.0539999999999882E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -19499,18 +19499,18 @@
         <v>48</v>
       </c>
       <c r="B17">
-        <f>COUNTIF(History!B17:B166,A17)</f>
-        <v>2</v>
+        <f>COUNTIF('Complete History'!B17:B267,Nachbearbeitung!A17)</f>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>1.534367</v>
+        <v>1.6035239999999999</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.53436700000000004</v>
+        <v>-0.60352399999999995</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -19518,18 +19518,18 @@
         <v>47</v>
       </c>
       <c r="B18">
-        <f>COUNTIF(History!B18:B167,A18)</f>
-        <v>5</v>
+        <f>COUNTIF('Complete History'!B18:B268,Nachbearbeitung!A18)</f>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>116.383737</v>
+        <v>111.840045</v>
       </c>
       <c r="D18" s="2">
         <v>20</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4.8191868499999995</v>
+        <v>-4.5920022500000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -19537,18 +19537,18 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <f>COUNTIF(History!B19:B168,A19)</f>
-        <v>31</v>
+        <f>COUNTIF('Complete History'!B19:B269,Nachbearbeitung!A19)</f>
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>13.383053</v>
+        <v>12.476457</v>
       </c>
       <c r="D19" s="2">
         <v>20</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.33084734999999998</v>
+        <v>0.37617715000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -19556,7 +19556,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <f>COUNTIF(History!B20:B169,A20)</f>
+        <f>COUNTIF('Complete History'!B20:B270,Nachbearbeitung!A20)</f>
         <v>3</v>
       </c>
       <c r="C20">
@@ -19575,7 +19575,7 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <f>COUNTIF(History!B21:B170,A21)</f>
+        <f>COUNTIF('Complete History'!B21:B271,Nachbearbeitung!A21)</f>
         <v>2</v>
       </c>
       <c r="C21">
@@ -19586,7 +19586,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1.6052295652173885E-2</v>
+        <v>-1.6052295652173885E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -19594,18 +19594,18 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <f>COUNTIF(History!B22:B171,A22)</f>
-        <v>11</v>
+        <f>COUNTIF('Complete History'!B22:B272,Nachbearbeitung!A22)</f>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>0.53312400000000004</v>
+        <v>0.52105400000000002</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.94668759999999996</v>
+        <v>0.94789460000000003</v>
       </c>
     </row>
   </sheetData>
